--- a/src/com/qtpselenium/xls/Suite.xlsx
+++ b/src/com/qtpselenium/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>TSID</t>
   </si>
@@ -25,28 +25,67 @@
     <t>Runmode</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PHONE SYETEM</t>
+  </si>
+  <si>
+    <t>BILLING</t>
+  </si>
+  <si>
+    <t>REPORTING</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>PRIVILEGES</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>Check all components of Home page</t>
+  </si>
+  <si>
+    <t>Check all components of PHONE SYSTEM Page</t>
+  </si>
+  <si>
+    <t>Check all components of  BILLING</t>
+  </si>
+  <si>
+    <t>Check all components of REPORTING</t>
+  </si>
+  <si>
+    <t>Check all components of ORDERS</t>
+  </si>
+  <si>
+    <t>Check all components of  PRIVILEGES</t>
+  </si>
+  <si>
+    <t>Check all components of SUPPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check all components of AM </t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Search Suite</t>
-  </si>
-  <si>
-    <t>Search for items</t>
-  </si>
-  <si>
-    <t>Check Items</t>
-  </si>
-  <si>
-    <t>Check items on site</t>
-  </si>
-  <si>
     <t>C Suite</t>
   </si>
   <si>
-    <t>Dummy Suite</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>Test rough work</t>
+  </si>
+  <si>
+    <t>Result1</t>
   </si>
 </sst>
 </file>
@@ -76,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,13 +138,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,37 +473,106 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
